--- a/results/Fig1.xlsx
+++ b/results/Fig1.xlsx
@@ -1289,5 +1289,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <webPublishItems count="1">
+    <webPublishItem id="12395" divId="Fig1_12395" sourceType="sheet" destinationFile="C:\GitHub\CRI\results\Fig1.htm"/>
+  </webPublishItems>
 </worksheet>
 </file>